--- a/target/test-classes/TestData.xlsx
+++ b/target/test-classes/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SFW\selenium_workspace\TestOrangeHRM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B510106D-DE6E-4C34-B8E8-2A50842E338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7E4B1B-CDFD-403D-B6BA-76AA61779F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="EmergencyContacts" sheetId="6" r:id="rId5"/>
     <sheet name="SocialMedia" sheetId="8" r:id="rId6"/>
     <sheet name="Dependents" sheetId="9" r:id="rId7"/>
+    <sheet name="Immigration" sheetId="10" r:id="rId8"/>
+    <sheet name="Membership" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>TestCases</t>
   </si>
@@ -241,6 +243,66 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>IssueDate</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>ReviewDate</t>
+  </si>
+  <si>
+    <t>EligibleStatus</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>IssueBy</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>U5945153</t>
+  </si>
+  <si>
+    <t>VS655465</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No Comments</t>
+  </si>
+  <si>
+    <t>Populating immigration passport details form for ESS user and saving it</t>
+  </si>
+  <si>
+    <t>Populating immigration visa details form for ESS user and saving it</t>
+  </si>
+  <si>
+    <t>Populating membership details form for ESS user and saving it</t>
+  </si>
+  <si>
+    <t>Membership</t>
+  </si>
+  <si>
+    <t>USAU Membership</t>
+  </si>
+  <si>
+    <t>AMSUS Membership</t>
   </si>
   <si>
     <t>Fail</t>
@@ -255,7 +317,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\+0"/>
-    <numFmt numFmtId="168" formatCode="[$-409]ddd\,\ dd\ mm\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-409]ddd\,\ dd\ mm\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -325,10 +387,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -837,7 +899,7 @@
         <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D499E1-5172-4C8C-8D5E-B5BA0182771F}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1340,4 +1402,240 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D40EBD-C4F7-499A-9E15-C9A5722F19D5}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="28.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="9.28515625" collapsed="true"/>
+    <col min="6" max="8" bestFit="true" customWidth="true" style="1" width="15.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.85546875" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="8">
+        <v>40918</v>
+      </c>
+      <c r="G2" s="8">
+        <v>48488</v>
+      </c>
+      <c r="H2" s="8">
+        <v>47858</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="9">
+        <v>44186</v>
+      </c>
+      <c r="G3" s="9">
+        <v>44915</v>
+      </c>
+      <c r="H3" s="9">
+        <v>36687</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{17DED6E1-02ED-425E-BAFF-599DE8E76345}">
+      <formula1>"To-Do, Pass, Fail, Skipped"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9508F642-17CF-4E28-A473-C8362AECCD66}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E4C881BD-5150-4871-A351-7CDFFC5706A2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047623F8-5D1D-4D35-9A60-0B3A312210F6}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="28.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" style="1" width="9.140625" collapsed="true"/>
+    <col min="6" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="16384" style="1" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{EAD6D0CE-FFB6-4CB6-BA66-672A31E32975}">
+      <formula1>"To-Do, Pass, Fail, Skipped"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5C7AA401-BAEF-4086-A3E0-4329EE1BA3DB}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{5E784F41-AB21-49C8-AD24-5CF6E5D70CD3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+</worksheet>
 </file>
--- a/target/test-classes/TestData.xlsx
+++ b/target/test-classes/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SFW\selenium_workspace\TestOrangeHRM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7E4B1B-CDFD-403D-B6BA-76AA61779F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C5F771-2732-45A7-97EE-D490E09EF621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,14 @@
     <sheet name="Dependents" sheetId="9" r:id="rId7"/>
     <sheet name="Immigration" sheetId="10" r:id="rId8"/>
     <sheet name="Membership" sheetId="11" r:id="rId9"/>
+    <sheet name="WorkExperience" sheetId="12" r:id="rId10"/>
+    <sheet name="Education" sheetId="13" r:id="rId11"/>
+    <sheet name="Language" sheetId="14" r:id="rId12"/>
+    <sheet name="Skills" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="120">
   <si>
     <t>TestCases</t>
   </si>
@@ -308,7 +312,91 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Skipped</t>
+    <t>Populating work experience details form in Qualifications for ESS user and saving it</t>
+  </si>
+  <si>
+    <t>Employer</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Sales Assistant</t>
+  </si>
+  <si>
+    <t>HCL</t>
+  </si>
+  <si>
+    <t>Dominos</t>
+  </si>
+  <si>
+    <t>Sales Manager</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Institute</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Bachelor's Degree</t>
+  </si>
+  <si>
+    <t>Master's Degree</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>B Com</t>
+  </si>
+  <si>
+    <t>M Com</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Fluency</t>
+  </si>
+  <si>
+    <t>Competency</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Populating Education details form in Qualifications for ESS user and saving it</t>
+  </si>
+  <si>
+    <t>Populating Language known details form in Qualifications for ESS user and saving it</t>
+  </si>
+  <si>
+    <t>Populating skills details form in Qualifications for ESS user and saving it</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Accounting</t>
   </si>
 </sst>
 </file>
@@ -682,10 +770,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="31.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,6 +824,386 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{B3556BCB-F64D-4D05-924F-C4C4EDA0F5A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA801425-6677-4188-98EA-82F6CA01C28F}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{5FE8CB3F-73E1-4860-B385-46914F55D99C}">
+      <formula1>"To-Do, Pass, Fail, Skipped"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{59A7AA3B-C759-4DE6-A3A4-A0B2E146EFD7}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{D8ADEB4A-C609-4870-AA81-84DE3B330B01}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4DC118-5BB1-4A0F-AA2A-A48E0E22BD79}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="15.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{EA330530-BF11-4118-8D2C-AD6B4B3F5193}">
+      <formula1>"To-Do, Pass, Fail, Skipped"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4A3C5021-A34F-4876-A226-927ACC35A96B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{8462D584-C3D9-41DE-AA48-D2C083A21E32}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DB4455-2C1E-49B4-A4F3-E1BCFC198D4C}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="15.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{74FE38D8-E367-4E99-83B2-87B54D378E7C}">
+      <formula1>"To-Do, Pass, Fail, Skipped"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{466D17F3-0104-44E1-ADE6-283E1C1F308B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{41E615A4-8256-4557-8C55-D6FF1ADF4819}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD25A490-22E5-46DF-B861-A02F8A296A71}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{0A01AD05-37BE-4E4B-867E-C735B16576B4}">
+      <formula1>"To-Do, Pass, Fail, Skipped"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{29B4D5D1-91E5-4881-8F90-A76541226948}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{3B4EB337-EEA7-4472-9C2A-77A81E96FE64}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -749,10 +1217,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="31.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="4" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,11 +1299,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="31.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="4" max="9" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="14" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -926,11 +1394,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="31.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="4" max="12" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="13" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="12" width="14" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1085,12 +1553,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="31.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.42578125" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="14" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1187,13 +1655,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="31.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="21.42578125" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="14" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1301,14 +1769,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="31.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="21.42578125" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1414,16 +1882,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="28.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="9.28515625" collapsed="true"/>
-    <col min="6" max="8" bestFit="true" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.85546875" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="28.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1559,19 +2027,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047623F8-5D1D-4D35-9A60-0B3A312210F6}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="28.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" style="1" width="9.140625" collapsed="true"/>
-    <col min="6" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="28.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
